--- a/data/raw_data/TN/pop_est_2020-2021_tn.xlsx
+++ b/data/raw_data/TN/pop_est_2020-2021_tn.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iulia\Documents\NSS\projects\capstone\data\TN\raw_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iulia\Documents\NSS\projects\capstone\data\raw_data\TN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E5E450-DBC3-405A-B65E-28057AAFE0DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC74F74-C390-4C5E-A2F5-F2FE5DAAB925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
   <si>
     <t>Tennessee</t>
   </si>
@@ -1751,9 +1751,6 @@
     <t>Union</t>
   </si>
   <si>
-    <t>Van Buren</t>
-  </si>
-  <si>
     <t>Warren</t>
   </si>
   <si>
@@ -1776,6 +1773,9 @@
   </si>
   <si>
     <t>Estimates Base</t>
+  </si>
+  <si>
+    <t>VanBuren</t>
   </si>
 </sst>
 </file>
@@ -3928,10 +3928,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D851679C-0862-4446-856C-FA443B6339EC}">
-  <dimension ref="A1:D97"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3946,7 +3946,7 @@
         <v>106</v>
       </c>
       <c r="B1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C1">
         <v>2020</v>
@@ -5175,7 +5175,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B89">
         <v>6168</v>
@@ -5189,7 +5189,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B90">
         <v>40953</v>
@@ -5203,7 +5203,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B91">
         <v>133001</v>
@@ -5217,7 +5217,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B92">
         <v>16232</v>
@@ -5231,7 +5231,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B93">
         <v>32902</v>
@@ -5245,7 +5245,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B94">
         <v>27351</v>
@@ -5259,7 +5259,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B95">
         <v>247726</v>
@@ -5273,7 +5273,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B96">
         <v>147737</v>
@@ -5283,20 +5283,6 @@
       </c>
       <c r="D96">
         <v>151917</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B97">
-        <v>6910840</v>
-      </c>
-      <c r="C97">
-        <v>6920119</v>
-      </c>
-      <c r="D97">
-        <v>6975218</v>
       </c>
     </row>
   </sheetData>
